--- a/Output_Backtest/Robust_Mean-Variance_drawdowns.xlsx
+++ b/Output_Backtest/Robust_Mean-Variance_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.0003115788741911985</v>
+        <v>-0.0003115736918691825</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.01257860726944737</v>
+        <v>-0.0125789007608087</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.01770558012994683</v>
+        <v>-0.01770451165449793</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.01179463059016617</v>
+        <v>-0.01179355453538744</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.00491142342724509</v>
+        <v>-0.004926576823508306</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.00125293602864078</v>
+        <v>-0.001268276509666132</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.003286852849402023</v>
+        <v>-0.003312512889810121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.002060002711304766</v>
+        <v>-0.002072162493380405</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.0142814624432392</v>
+        <v>-0.01429491346074729</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.0364453600353396</v>
+        <v>-0.03647160296847258</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03023399678669845</v>
+        <v>-0.0302612091116631</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.02570014334138652</v>
+        <v>-0.02572778784683613</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01311952918636979</v>
+        <v>-0.01314747604638669</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01286980524726603</v>
+        <v>-0.01289811810462461</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.001768302769748487</v>
+        <v>-0.001796490569419481</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.002175929614932007</v>
+        <v>-0.002175728204783023</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.0006997192970419924</v>
+        <v>-0.0007000943861817986</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01549876540056784</v>
+        <v>-0.01549894982123157</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01112362805922453</v>
+        <v>-0.01112360650939904</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.0166564465298192</v>
+        <v>-0.01665634652441146</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01097642605005583</v>
+        <v>-0.01097652195481846</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03792913787248818</v>
+        <v>-0.03792907007802333</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03148326284331095</v>
+        <v>-0.03148334163499796</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.04585941391821961</v>
+        <v>-0.04585923676928236</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.01287068321114078</v>
+        <v>-0.01287057689305516</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.005700137079995716</v>
+        <v>-0.005699983286231555</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.01266902211792731</v>
+        <v>-0.01266874635643332</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.0004692715698470515</v>
+        <v>-0.0004694629057614181</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.005583502788720811</v>
+        <v>-0.005585391629108568</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.006815974103951934</v>
+        <v>-0.006816032299506532</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.0180646944978829</v>
+        <v>-0.01806485813787686</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005540391077466872</v>
+        <v>-0.005540517098285872</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01656902437172085</v>
+        <v>-0.01656926531620052</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02681891331553013</v>
+        <v>-0.02681926010294548</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01729465639343521</v>
+        <v>-0.01729482174100985</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01368876662399811</v>
+        <v>-0.01368907711672776</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.005549151930517692</v>
+        <v>-0.005549352332277442</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01436598098182234</v>
+        <v>-0.0143659287547895</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01090616877467826</v>
+        <v>-0.01090612334509571</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01255912425711372</v>
+        <v>-0.01255907549466662</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.006668490403121162</v>
+        <v>-0.006668510243106898</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03650785633013275</v>
+        <v>-0.03650789963631947</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03987098534252818</v>
+        <v>-0.03987086322009545</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.05950230992340352</v>
+        <v>-0.05950213547705731</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.09420958381136324</v>
+        <v>-0.09420934181655323</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09229396074659413</v>
+        <v>-0.09229373307281016</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1137833720766913</v>
+        <v>-0.1137829595850297</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.096716214399169</v>
+        <v>-0.09671583635011198</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1211739874066992</v>
+        <v>-0.1211734486628381</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1577540847049877</v>
+        <v>-0.1577535753063403</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1588215665590085</v>
+        <v>-0.1588209134823159</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1304790191947212</v>
+        <v>-0.1304783490561001</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1362214600601272</v>
+        <v>-0.1362208230853614</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1093971086526853</v>
+        <v>-0.1093965495023673</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1309288411264211</v>
+        <v>-0.1309282483512255</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1083759921378916</v>
+        <v>-0.108375361224203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1040857161816454</v>
+        <v>-0.104085017722744</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1215665918258493</v>
+        <v>-0.1215658987912369</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1146186432157573</v>
+        <v>-0.1146179380246403</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.09578368469126278</v>
+        <v>-0.09578308710974348</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.09779079132850031</v>
+        <v>-0.09779018708694195</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1079874739627994</v>
+        <v>-0.1079870966982209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1151002676470327</v>
+        <v>-0.1150997676966819</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.09737203749460326</v>
+        <v>-0.09737147694037056</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.08299018752059079</v>
+        <v>-0.08298956230622029</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07886239008417718</v>
+        <v>-0.07886174079092521</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.07323514404808967</v>
+        <v>-0.07323454242589704</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.04583129745212725</v>
+        <v>-0.04583070747322964</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.05315492594373911</v>
+        <v>-0.05315424180950423</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.04634393708036182</v>
+        <v>-0.04634324543096188</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.03550516303375568</v>
+        <v>-0.03550450791548808</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.01502488465381429</v>
+        <v>-0.01502422518203194</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.00797163281070426</v>
+        <v>-0.007970946154366346</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02317460757857301</v>
+        <v>-0.02317462794782574</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Robust_Mean-Variance_drawdowns.xlsx
+++ b/Output_Backtest/Robust_Mean-Variance_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.0003115736918691825</v>
+        <v>-0.0003120665101625786</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0125789007608087</v>
+        <v>-0.01257888029033538</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.01770451165449793</v>
+        <v>-0.01770367084116076</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.01179355453538744</v>
+        <v>-0.01179280544074435</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.004926576823508306</v>
+        <v>-0.004911216983267237</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.001268276509666132</v>
+        <v>-0.001252884539776595</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.003312512889810121</v>
+        <v>-0.003309785401033597</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.002072162493380405</v>
+        <v>-0.002083879200362646</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01429491346074729</v>
+        <v>-0.01430559534621097</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03647160296847258</v>
+        <v>-0.036469033325118</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.0302612091116631</v>
+        <v>-0.03025809935384058</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.02572778784683613</v>
+        <v>-0.02572413981246944</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01314747604638669</v>
+        <v>-0.013144366420172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01289811810462461</v>
+        <v>-0.01289422400114723</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.001796490569419481</v>
+        <v>-0.001793256382085688</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.002175728204783023</v>
+        <v>-0.00217607680300384</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.0007000943861817986</v>
+        <v>-0.0006999330075039672</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01549894982123157</v>
+        <v>-0.01549862007870601</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01112360650939904</v>
+        <v>-0.01112326497636042</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01665634652441146</v>
+        <v>-0.01665593177432214</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01097652195481846</v>
+        <v>-0.01097700174399979</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03792907007802333</v>
+        <v>-0.03792968923726216</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03148334163499796</v>
+        <v>-0.0314836869084037</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.04585923676928236</v>
+        <v>-0.0458595429960922</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.01287057689305516</v>
+        <v>-0.01287101884807182</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.005699983286231555</v>
+        <v>-0.005700216132990727</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.01266874635643332</v>
+        <v>-0.01266874516991593</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.0004694629057614181</v>
+        <v>-0.0004693213453152156</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.005585391629108568</v>
+        <v>-0.005592301446137925</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.006816032299506532</v>
+        <v>-0.006815949667190234</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.01806485813787686</v>
+        <v>-0.01806487543768143</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005540517098285872</v>
+        <v>-0.005540379592630042</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01656926531620052</v>
+        <v>-0.01656925612439124</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02681926010294548</v>
+        <v>-0.02681927804569771</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01729482174100985</v>
+        <v>-0.01729495816189516</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01368907711672776</v>
+        <v>-0.01368908411425939</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.005549352332277442</v>
+        <v>-0.005549549264175179</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.0143659287547895</v>
+        <v>-0.01436575347019542</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01090612334509571</v>
+        <v>-0.01090605276529554</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01255907549466662</v>
+        <v>-0.01255896451402364</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.006668510243106898</v>
+        <v>-0.006668319450678143</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03650789963631947</v>
+        <v>-0.03650774439615606</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03987086322009545</v>
+        <v>-0.03987078198466957</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.05950213547705731</v>
+        <v>-0.0595021020400141</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.09420934181655323</v>
+        <v>-0.09420943309679264</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09229373307281016</v>
+        <v>-0.09229384692977323</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1137829595850297</v>
+        <v>-0.1137831162140027</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.09671583635011198</v>
+        <v>-0.09671586178074076</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1211734486628381</v>
+        <v>-0.1211736057795685</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1577535753063403</v>
+        <v>-0.1577537708389705</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1588209134823159</v>
+        <v>-0.1588210627840858</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1304783490561001</v>
+        <v>-0.1304785245224905</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1362208230853614</v>
+        <v>-0.1362209510695186</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1093965495023673</v>
+        <v>-0.1093966190578064</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1309282483512255</v>
+        <v>-0.1309284838509729</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.108375361224203</v>
+        <v>-0.1083755316196314</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.104085017722744</v>
+        <v>-0.1040853456254641</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1215658987912369</v>
+        <v>-0.1215663041818355</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1146179380246403</v>
+        <v>-0.1146181999290924</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.09578308710974348</v>
+        <v>-0.09578323742306138</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.09779018708694195</v>
+        <v>-0.0977903371966555</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1079870966982209</v>
+        <v>-0.107987046561335</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1150997676966819</v>
+        <v>-0.115099870477734</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.09737147694037056</v>
+        <v>-0.09737158543407308</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.08298956230622029</v>
+        <v>-0.0829897670955016</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07886174079092521</v>
+        <v>-0.07886191297715001</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.07323454242589704</v>
+        <v>-0.07323475286666901</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.04583070747322964</v>
+        <v>-0.04583087908908247</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.05315424180950423</v>
+        <v>-0.05315442530063533</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.04634324543096188</v>
+        <v>-0.04634344186279491</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.03550450791548808</v>
+        <v>-0.03550469527751823</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.01502422518203194</v>
+        <v>-0.01502440417877222</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.007970946154366346</v>
+        <v>-0.007971125515660361</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02317462794782574</v>
+        <v>-0.01423919316592341</v>
       </c>
     </row>
   </sheetData>
